--- a/DBScript/ResourceGroups.xlsx
+++ b/DBScript/ResourceGroups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>group_id</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>All login related fields and data</t>
+  </si>
+  <si>
+    <t>Invitation Codes</t>
+  </si>
+  <si>
+    <t>Invitation codes related fields and data</t>
+  </si>
+  <si>
+    <t>Payment &amp; Recharge</t>
+  </si>
+  <si>
+    <t>All payments and recharge related data group</t>
   </si>
 </sst>
 </file>
@@ -115,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,10 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,6 +852,58 @@
         <v>44411.548043981478</v>
       </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>

--- a/DBScript/ResourceGroups.xlsx
+++ b/DBScript/ResourceGroups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>group_id</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>All payments and recharge related data group</t>
+  </si>
+  <si>
+    <t>Dashboard Page Group</t>
+  </si>
+  <si>
+    <t>Dash board data</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,6 +910,32 @@
         <v>44411.548043981478</v>
       </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44411.548043981478</v>
+      </c>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
     </row>
